--- a/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Video_6_BeFit.txt.xlsx
+++ b/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Video_6_BeFit.txt.xlsx
@@ -908,10 +908,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>99.99979734420776</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>93.04782748222351</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>99.99998807907104</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>99.99992847442627</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>99.997878074646</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -977,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>99.9998927116394</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>99.99978542327881</v>
+        <v>99.9112069606781</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>99.99693632125854</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1029,10 +1029,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>99.99499320983887</v>
+        <v>99.99977350234985</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>99.98258948326111</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>99.9998927116394</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>99.99911785125732</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1084,10 +1084,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>93.82501840591431</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1098,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>99.99985694885254</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>83.62106084823608</v>
+        <v>99.9915599822998</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1197,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>99.99898672103882</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1285,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>99.99963045120239</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>99.99927282333374</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>99.99071359634399</v>
+        <v>99.9997615814209</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>99.90565180778503</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>99.99995231628418</v>
+        <v>99.9998927116394</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>99.99995231628418</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>99.99998807907104</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1403,10 +1403,10 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>74.21199083328247</v>
+        <v>99.99929666519165</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>99.99933242797852</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1483,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>99.99693632125854</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>99.99997615814209</v>
+        <v>89.74702954292297</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="D65">
-        <v>99.99984502792358</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1604,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>99.99997615814209</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>100</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1626,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>99.9992847442627</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1648,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1689,10 +1689,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>99.99992847442627</v>
+        <v>88.20975422859192</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>99.99998807907104</v>
+        <v>99.9997615814209</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1733,10 +1733,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>99.99543428421021</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1747,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>99.98747110366821</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1769,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="D85">
-        <v>99.98854398727417</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>99.98446702957153</v>
+        <v>99.99850988388062</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1802,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>99.99966621398926</v>
+        <v>82.39760994911194</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1813,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>99.99980926513672</v>
+        <v>74.03348088264465</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1824,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1846,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="D92">
-        <v>99.99986886978149</v>
+        <v>99.98767375946045</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1868,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>99.9996542930603</v>
+        <v>99.42518472671509</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1879,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>99.10485744476318</v>
+        <v>99.89904761314392</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1920,10 +1920,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>99.92528557777405</v>
+        <v>99.91976618766785</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="D100">
-        <v>99.82935786247253</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>99.99998807907104</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="D102">
-        <v>99.99997615814209</v>
+        <v>99.99933242797852</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1978,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>99.99959468841553</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1989,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>99.99984502792358</v>
+        <v>99.99421834945679</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2000,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="D106">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>99.99868869781494</v>
+        <v>99.98403787612915</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2033,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2063,10 +2063,10 @@
         <v>83</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>99.99543428421021</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>100</v>
+        <v>99.99765157699585</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="D115">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>99.99849796295166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2132,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>99.99040365219116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2154,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="D120">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2165,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>98.99818301200867</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2184,10 +2184,10 @@
         <v>123</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>86.39305830001831</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2198,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="D124">
-        <v>99.99990463256836</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>99.9994158744812</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2231,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="D127">
-        <v>99.99657869338989</v>
+        <v>86.68943643569946</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2239,10 +2239,10 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>99.9992847442627</v>
+        <v>95.32052278518677</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2253,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="D129">
-        <v>99.99966621398926</v>
+        <v>99.99949932098389</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2264,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="D130">
-        <v>100</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2275,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="D131">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="D137">
-        <v>99.99957084655762</v>
+        <v>99.9970555305481</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>99.99998807907104</v>
+        <v>99.99951124191284</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2371,10 +2371,10 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>100</v>
+        <v>50.00947117805481</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2396,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="D142">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="D146">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="D148">
-        <v>99.99998807907104</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2470,10 +2470,10 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>99.99995231628418</v>
+        <v>59.84077453613281</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2484,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <v>99.99998807907104</v>
+        <v>99.99948740005493</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="D151">
-        <v>99.99772310256958</v>
+        <v>99.94229078292847</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>99.9998927116394</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>99.99269247055054</v>
+        <v>99.99912977218628</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2528,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="D154">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2539,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>99.99986886978149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2550,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="D156">
-        <v>99.93798732757568</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,10 +2558,10 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>99.99948740005493</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="158" spans="1:4">
